--- a/RegressionTests/Unit_Test_9/aptrans_b6e69a92-eb69-4ed6-bf71-805fe69f2f3d.XLSX
+++ b/RegressionTests/Unit_Test_9/aptrans_b6e69a92-eb69-4ed6-bf71-805fe69f2f3d.XLSX
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="~Cover" sheetId="1" r:id="rId2"/>
@@ -17,14 +17,14 @@
     <sheet name="$Cover" sheetId="6" r:id="rId4"/>
     <sheet name="~Jan" sheetId="2" r:id="rId5"/>
     <sheet name="Jan" sheetId="7" r:id="rId6"/>
-    <sheet name="$Jan" sheetId="11" r:id="rId7"/>
+    <sheet name="$Jan" sheetId="8" r:id="rId7"/>
     <sheet name="~Feb" sheetId="3" r:id="rId8"/>
-    <sheet name="Feb" sheetId="8" r:id="rId9"/>
-    <sheet name="$Feb" sheetId="12" r:id="rId10"/>
+    <sheet name="Feb" sheetId="9" r:id="rId9"/>
+    <sheet name="$Feb" sheetId="10" r:id="rId10"/>
     <sheet name="~March" sheetId="4" r:id="rId11"/>
-    <sheet name="March" sheetId="9" r:id="rId12"/>
-    <sheet name="$March" sheetId="13" r:id="rId13"/>
-    <sheet name="#March" sheetId="10" r:id="rId14"/>
+    <sheet name="March" sheetId="11" r:id="rId12"/>
+    <sheet name="$March" sheetId="12" r:id="rId13"/>
+    <sheet name="#March" sheetId="13" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="73">
   <si>
     <t>PAYROLL</t>
   </si>
@@ -243,25 +243,7 @@
     <t>The Scheme ID is missing</t>
   </si>
   <si>
-    <t>payroll</t>
-  </si>
-  <si>
-    <t>refno</t>
-  </si>
-  <si>
-    <t>surname</t>
-  </si>
-  <si>
-    <t>forename</t>
-  </si>
-  <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>avc</t>
+    <t>2_Errors_found</t>
   </si>
   <si>
     <t>NEG_ROWS</t>
@@ -274,9 +256,6 @@
   </si>
   <si>
     <t>3679.53</t>
-  </si>
-  <si>
-    <t>1_Errors_found</t>
   </si>
 </sst>
 </file>
@@ -1027,25 +1006,25 @@
         <v>57</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
@@ -1251,19 +1230,21 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" ht="12.75">
+    <row r="2" spans="1:2" ht="15">
       <c r="A2" s="4" t="s">
         <v>59</v>
       </c>
@@ -1271,11 +1252,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75">
+    <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1319,22 +1308,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1621,25 +1610,25 @@
         <v>57</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
@@ -1773,19 +1762,21 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" ht="12.75">
+    <row r="2" spans="1:2" ht="15">
       <c r="A2" s="4" t="s">
         <v>59</v>
       </c>
@@ -1793,11 +1784,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75">
+    <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2031,25 +2030,25 @@
         <v>57</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
@@ -2231,19 +2230,21 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" ht="12.75">
+    <row r="2" spans="1:2" ht="15">
       <c r="A2" s="4" t="s">
         <v>59</v>
       </c>
@@ -2251,11 +2252,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75">
+    <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>67</v>
       </c>
     </row>

--- a/RegressionTests/Unit_Test_9/aptrans_b6e69a92-eb69-4ed6-bf71-805fe69f2f3d.XLSX
+++ b/RegressionTests/Unit_Test_9/aptrans_b6e69a92-eb69-4ed6-bf71-805fe69f2f3d.XLSX
@@ -563,10 +563,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
     </border>
   </borders>
@@ -595,18 +595,21 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1060,31 +1063,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1669,7 +1672,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B3" t="s">
@@ -1695,7 +1698,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B4" t="s">
@@ -1721,7 +1724,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B5" t="s">
@@ -1747,7 +1750,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="45">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B6" t="s">
@@ -2050,7 +2053,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B3" t="s">
@@ -2076,7 +2079,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B4" t="s">
@@ -2102,7 +2105,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B5" t="s">
@@ -2128,7 +2131,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="45">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B6" t="s">
@@ -2154,7 +2157,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="45">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B7" t="s">
@@ -2180,7 +2183,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="45">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B8" t="s">
@@ -2506,7 +2509,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B3" t="s">
@@ -2532,7 +2535,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B4" t="s">
@@ -2558,7 +2561,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B5" t="s">
@@ -2584,7 +2587,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="45">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B6" t="s">
@@ -2610,7 +2613,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="45">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B7" t="s">
@@ -2636,7 +2639,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="45">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B8" t="s">
@@ -2662,7 +2665,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="45">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B9" t="s">
